--- a/LABA 2/laba1.xlsx
+++ b/LABA 2/laba1.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -3589,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3992,7 +3991,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>1.278772378516624E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>1.277139208173691E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>1.2755102040816325E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>60</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>1.2738853503184714E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>18.230316311974356</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>18.69812322889074</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -4107,8 +4106,12 @@
         <f t="shared" si="7"/>
         <v>18.879922518813949</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <f>_xlfn.T.INV.2T(0.05,B48-2)</f>
+        <v>2.4469118511449697</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>20</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>18.980911800554999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>19.003231860061732</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>30</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>19.014375398000769</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>35</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>19.025507973258485</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>60</v>
       </c>
@@ -4212,8 +4215,15 @@
         <f t="shared" si="7"/>
         <v>19.036629609630108</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="12">
+        <f>EXP(E54)</f>
+        <v>74.52471634118946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <f>SUM(A39:A46)</f>
         <v>200</v>
@@ -4234,8 +4244,15 @@
         <f>SUM(E39:E46)</f>
         <v>150.86901870118513</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="12">
+        <f>E55</f>
+        <v>1.2566666666666282E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>8</v>
       </c>
@@ -4243,12 +4260,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4">
+        <f>CORREL(A39:A46,B39:B46)</f>
+        <v>0.67627025306542676</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4">
+        <f>ABS(B48)*SQRT((B48-2)/(1-B49^2))</f>
+        <v>26.601264976615415</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>8</v>
       </c>
@@ -4259,7 +4295,7 @@
         <v>34.740380000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>200</v>
       </c>
@@ -4270,7 +4306,7 @@
         <v>871.14850000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="array" ref="A54:B55">MINVERSE(A51:B52)</f>
         <v>0.42261904761904762</v>
@@ -4285,15 +4321,8 @@
         <f t="array" ref="E54:E55">MMULT(A54:B55,D51:D52)</f>
         <v>4.3111308333333351</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="12">
-        <f>EXP(E54)</f>
-        <v>74.52471634118946</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-1.1904761904761904E-2</v>
       </c>
@@ -4304,13 +4333,6 @@
         <v>14</v>
       </c>
       <c r="E55" s="3">
-        <v>1.2566666666666282E-3</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="12">
-        <f>E55</f>
         <v>1.2566666666666282E-3</v>
       </c>
     </row>

--- a/LABA 2/laba1.xlsx
+++ b/LABA 2/laba1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -66,15 +66,6 @@
     <t>b1=</t>
   </si>
   <si>
-    <t>1/yi</t>
-  </si>
-  <si>
-    <t>Xi=xi</t>
-  </si>
-  <si>
-    <t>Yi=lnyi</t>
-  </si>
-  <si>
     <t>XiYi</t>
   </si>
   <si>
@@ -87,17 +78,38 @@
     <t>Система нормальных уравнений</t>
   </si>
   <si>
+    <t>b=b1</t>
+  </si>
+  <si>
     <t>a=e^b0</t>
   </si>
   <si>
-    <t>b=b1</t>
+    <t>Yi=yi</t>
+  </si>
+  <si>
+    <t>Xi=xi</t>
+  </si>
+  <si>
+    <t>xi^3</t>
+  </si>
+  <si>
+    <t>xi^4</t>
+  </si>
+  <si>
+    <t>xi^2yi</t>
+  </si>
+  <si>
+    <t>b2=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _B_r_-;\-* #,##0.00\ _B_r_-;_-* &quot;-&quot;??\ _B_r_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +126,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +177,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,11 +231,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -224,9 +270,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,26 +341,18 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -327,69 +372,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
+            <c:name>Линейная</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -399,7 +387,119 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43647886686577969"/>
+                  <c:y val="-1.0456852791878173E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Логарифмическая</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42150767791957039"/>
+                  <c:y val="-0.13491506455094129"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Экспоненциальная</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27294038676199955"/>
+                  <c:y val="-0.11197969543147208"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -440,16 +540,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
+            <c:name>Полиномиальная</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -457,84 +559,106 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28071876791263162"/>
+                  <c:y val="-0.26952902460796463"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:trendline>
+            <c:name>Степеная</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.27077608833378586"/>
+                  <c:y val="-1.9132126250716122E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:trendline>
+            <c:name>Линейная фильтрация</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -542,20 +666,6 @@
             </c:spPr>
             <c:trendlineType val="movingAvg"/>
             <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -625,10 +735,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94E5-4CE2-8E2F-BC68481AB739}"/>
+              <c16:uniqueId val="{00000000-D5DC-495B-B121-2EA87175FB0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,11 +750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324839968"/>
-        <c:axId val="324842264"/>
+        <c:axId val="330015464"/>
+        <c:axId val="330015792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324839968"/>
+        <c:axId val="330015464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,12 +811,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324842264"/>
+        <c:crossAx val="330015792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324842264"/>
+        <c:axId val="330015792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324839968"/>
+        <c:crossAx val="330015464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -775,6 +885,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -827,6 +973,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Степеная</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -899,102 +1070,71 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$29:$A$36</c:f>
+              <c:f>Лист1!$A$34:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>2.7080502011022101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>2.9957322735539909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>3.2188758248682006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>3.4011973816621555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>3.5553480614894135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>4.0943445622221004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$29:$B$36</c:f>
+              <c:f>Лист1!$B$34:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3986013986013986E-2</c:v>
+                  <c:v>4.2696974496999616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3245033112582781E-2</c:v>
+                  <c:v>4.3241326562549789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2970168612191959E-2</c:v>
+                  <c:v>4.3451032805692833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.282051282051282E-2</c:v>
+                  <c:v>4.3567088266895917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.278772378516624E-2</c:v>
+                  <c:v>4.3592696475512653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.277139208173691E-2</c:v>
+                  <c:v>4.3605476029967578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2755102040816325E-2</c:v>
+                  <c:v>4.3618239273563626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2738853503184714E-2</c:v>
+                  <c:v>4.3630986247883632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B30-4189-A3B4-88D3C8EBC114}"/>
+              <c16:uniqueId val="{00000000-338E-43AB-A60D-FA173E2173BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1014,11 +1154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="433804624"/>
-        <c:axId val="433805280"/>
+        <c:axId val="273681240"/>
+        <c:axId val="273685832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="433804624"/>
+        <c:axId val="273681240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433805280"/>
+        <c:crossAx val="273685832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433805280"/>
+        <c:axId val="273685832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,381 +1277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433804624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$39:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$39:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.2696974496999616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3241326562549789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3451032805692833</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3567088266895917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3592696475512653</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3605476029967578</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3618239273563626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3630986247883632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D82B-4808-87DF-8A14690EE28A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="268278176"/>
-        <c:axId val="268270632"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="268278176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="268270632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="268270632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="268278176"/>
+        <c:crossAx val="273681240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1640,46 +1406,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2197,522 +1923,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3233,15 +2443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3262,16 +2472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3285,36 +2495,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3586,13 +2766,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
@@ -3673,6 +2858,15 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -3693,6 +2887,18 @@
         <f>B6*B6</f>
         <v>5112.25</v>
       </c>
+      <c r="F6">
+        <f>A6^3</f>
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <f>A6^4</f>
+        <v>625</v>
+      </c>
+      <c r="H6">
+        <f>D6*B6</f>
+        <v>1787.5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -3713,6 +2919,18 @@
         <f t="shared" ref="E7:E13" si="2">B7*B7</f>
         <v>5700.25</v>
       </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F13" si="3">A7^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G13" si="4">A7^4</f>
+        <v>10000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H13" si="5">D7*B7</f>
+        <v>7550</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -3733,6 +2951,18 @@
         <f t="shared" si="2"/>
         <v>5944.4099999999989</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>3375</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>50625</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>17347.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -3753,6 +2983,18 @@
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>160000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>31200</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -3773,6 +3015,18 @@
         <f t="shared" si="2"/>
         <v>6115.2400000000007</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>15625</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>390625</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>48875</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -3793,6 +3047,18 @@
         <f t="shared" si="2"/>
         <v>6130.8899999999994</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>27000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>810000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>70470</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -3813,6 +3079,18 @@
         <f t="shared" si="2"/>
         <v>6146.5600000000013</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>42875</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1500625</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>96040</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -3832,6 +3110,18 @@
       <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>6162.25</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>216000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12960000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>282600</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3855,6 +3145,18 @@
         <f>SUM(E6:E13)</f>
         <v>47395.850000000006</v>
       </c>
+      <c r="F14" s="14">
+        <f>SUM(F6:F12)</f>
+        <v>98000</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(G6:G12)</f>
+        <v>2922500</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H6:H12)</f>
+        <v>273270</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -3890,450 +3192,497 @@
         <v>2.4469118511449697</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <f>B15</f>
         <v>8</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="16">
         <v>200</v>
       </c>
-      <c r="D19" s="5">
+      <c r="C19" s="16">
+        <v>7100</v>
+      </c>
+      <c r="D19" s="16">
         <v>615.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="F19" s="17">
+        <v>8</v>
+      </c>
+      <c r="G19" s="17">
         <v>200</v>
       </c>
-      <c r="B20" s="5">
+      <c r="H19" s="17">
+        <v>615.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>200</v>
+      </c>
+      <c r="B20" s="16">
         <v>7100</v>
       </c>
-      <c r="D20" s="5">
+      <c r="C20" s="16">
+        <v>9800</v>
+      </c>
+      <c r="D20" s="16">
         <v>15587</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <f t="array" ref="A22:B23">MINVERSE(A19:B20)</f>
+      <c r="F20" s="17">
+        <v>200</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7100</v>
+      </c>
+      <c r="H20" s="17">
+        <v>15587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>7100</v>
+      </c>
+      <c r="B21" s="16">
+        <v>9800</v>
+      </c>
+      <c r="C21" s="16">
+        <f>G14</f>
+        <v>2922500</v>
+      </c>
+      <c r="D21" s="16">
+        <f>H14</f>
+        <v>273270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="array" ref="A24:C26">MINVERSE(A19:C21)</f>
+        <v>-7.3305270089028082E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.8275820505973183E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.7196137332292408E-4</v>
+      </c>
+      <c r="D24">
+        <f t="array" ref="D24:D26">MMULT(A24:C26,D19:D21)</f>
+        <v>30.359012170819078</v>
+      </c>
+      <c r="F24">
+        <f t="array" ref="F24:G25">MINVERSE(F19:G20)</f>
         <v>0.42261904761904762</v>
       </c>
-      <c r="B22" s="5">
+      <c r="G24">
         <v>-1.1904761904761904E-2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="H24">
+        <f t="array" ref="H24:H25">MMULT(F24:G25,H19:H20)</f>
+        <v>74.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.8275820505973183E-3</v>
+      </c>
+      <c r="B25">
+        <v>9.5936345116999754E-5</v>
+      </c>
+      <c r="C25">
+        <v>-4.7616796377716201E-6</v>
+      </c>
+      <c r="D25">
+        <v>1.3190123688674744</v>
+      </c>
+      <c r="F25">
+        <v>-1.1904761904761904E-2</v>
+      </c>
+      <c r="G25">
+        <v>4.7619047619047619E-4</v>
+      </c>
+      <c r="H25">
+        <v>9.5000000000000639E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.7196137332292408E-4</v>
+      </c>
+      <c r="B26">
+        <v>-4.7616796377716193E-6</v>
+      </c>
+      <c r="C26">
+        <v>-5.9627473102685755E-8</v>
+      </c>
+      <c r="D26">
+        <v>1.5327525191542599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4">
-        <f t="array" ref="D22:D23">MMULT(A22:B23,D19:D20)</f>
-        <v>74.5625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>-1.1904761904761904E-2</v>
-      </c>
-      <c r="B23" s="5">
-        <v>4.7619047619047619E-4</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="H27">
+        <f t="array" ref="H27:H28">MMULT(F24:G25,H24:H25)</f>
+        <v>31.510401785714286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <f t="array" ref="C28:C30">MMULT(A24:C26,D24:D26)</f>
+        <v>-2.2230623477458438</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4">
-        <v>9.5000000000000639E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="H28">
+        <v>-0.88760357142857138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>5.5610053958323136E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>5.2142957973410143E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1">
-        <f>1/B6</f>
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" ref="B30:B36" si="3">1/B7</f>
-        <v>1.3245033112582781E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2970168612191959E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="3"/>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="3"/>
-        <v>1.278772378516624E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>30</v>
+        <f>LN(A6)</f>
+        <v>1.6094379124341003</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="3"/>
-        <v>1.277139208173691E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2755102040816325E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2738853503184714E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1">
         <f>LN(B6)</f>
         <v>4.2696974496999616</v>
       </c>
+      <c r="C34" s="1">
+        <f>A34*B34</f>
+        <v>6.871812950170308</v>
+      </c>
+      <c r="D34" s="1">
+        <f>A34*A34</f>
+        <v>2.5902903939802346</v>
+      </c>
+      <c r="E34" s="1">
+        <f>B34*B34</f>
+        <v>18.230316311974356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" ref="A35:B41" si="6">LN(A7)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3241326562549789</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35:C41" si="7">A35*B35</f>
+        <v>9.9566833944214608</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:D40" si="8">A35*A35</f>
+        <v>5.3018981104783993</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:E41" si="9">B35*B35</f>
+        <v>18.69812322889074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="6"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3451032805692833</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="7"/>
+        <v>11.76675781275552</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3335358916897206</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="9"/>
+        <v>18.879922518813949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3567088266895917</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="7"/>
+        <v>13.051533238591551</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="8"/>
+        <v>8.9744118548129634</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="9"/>
+        <v>18.980911800554999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3592696475512653</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="7"/>
+        <v>14.031947682584489</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="8"/>
+        <v>10.361161575920939</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="9"/>
+        <v>19.003231860061732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3605476029967578</v>
+      </c>
       <c r="C39" s="1">
-        <f>A39*B39</f>
-        <v>21.348487248499808</v>
+        <f t="shared" si="7"/>
+        <v>14.831083089925761</v>
       </c>
       <c r="D39" s="1">
-        <f>A39*A39</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>11.568143629025503</v>
       </c>
       <c r="E39" s="1">
-        <f>B39*B39</f>
-        <v>18.230316311974356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>19.014375398000769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3618239273563626</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="7"/>
+        <v>15.507802244684584</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="8"/>
+        <v>12.640499838336531</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="9"/>
+        <v>19.025507973258485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3630986247883632</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="7"/>
+        <v>17.864029128840958</v>
+      </c>
+      <c r="D41" s="1">
+        <f>A41*A41</f>
+        <v>16.763657394197683</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="9"/>
+        <v>19.036629609630108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <f t="shared" ref="A42:E42" si="10">SUM(A34:A41)</f>
+        <v>23.88557131032622</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" si="10"/>
+        <v>34.740382015906562</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="10"/>
+        <v>103.88164954197462</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="10"/>
+        <v>75.53359868844197</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="10"/>
+        <v>150.86901870118513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4">
+        <f>CORREL(A34:A41,B34:B41)</f>
+        <v>0.90006034628702913</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" ref="B40:B46" si="4">LN(B7)</f>
-        <v>4.3241326562549789</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" ref="C40:C46" si="5">A40*B40</f>
-        <v>43.241326562549787</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" ref="D40:D45" si="6">A40*A40</f>
-        <v>100</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" ref="E40:E46" si="7">B40*B40</f>
-        <v>18.69812322889074</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>15</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3451032805692833</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="5"/>
-        <v>65.176549208539257</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="6"/>
-        <v>225</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="7"/>
-        <v>18.879922518813949</v>
-      </c>
-      <c r="F41" s="4">
-        <f>_xlfn.T.INV.2T(0.05,B48-2)</f>
+      <c r="D44" s="4">
+        <f>ABS(B43)*SQRT((B43-2)/(1-B44^2))</f>
+        <v>44.968975643906987</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4">
+        <f>_xlfn.T.INV.2T(0.05,B43-2)</f>
         <v>2.4469118511449697</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <f>A42</f>
+        <v>23.88557131032622</v>
+      </c>
+      <c r="D46" s="5">
+        <v>34.740380000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <f>A42</f>
+        <v>23.88557131032622</v>
+      </c>
+      <c r="B47" s="5">
+        <f>D42</f>
+        <v>75.53359868844197</v>
+      </c>
+      <c r="D47" s="5">
+        <f>C42</f>
+        <v>103.88164954197462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="array" ref="A48:B49">MINVERSE(A46:B47)</f>
+        <v>2.2381471013139738</v>
+      </c>
+      <c r="B48">
+        <v>-0.70775685416422662</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="array" ref="E48:E49">MMULT(A48:B49,D46:D47)</f>
+        <v>4.2311313103273136</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3567088266895917</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="5"/>
-        <v>87.13417653379183</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="7"/>
-        <v>18.980911800554999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3592696475512653</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="5"/>
-        <v>108.98174118878163</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="6"/>
-        <v>625</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="7"/>
-        <v>19.003231860061732</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>30</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3605476029967578</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="5"/>
-        <v>130.81642808990273</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="7"/>
-        <v>19.014375398000769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3618239273563626</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="5"/>
-        <v>152.66383745747268</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="6"/>
-        <v>1225</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="7"/>
-        <v>19.025507973258485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3630986247883632</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="5"/>
-        <v>261.78591748730179</v>
-      </c>
-      <c r="D46" s="1">
-        <f>A46*A46</f>
-        <v>3600</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="7"/>
-        <v>19.036629609630108</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
-        <f>EXP(E54)</f>
-        <v>74.52471634118946</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <f>SUM(A39:A46)</f>
-        <v>200</v>
-      </c>
-      <c r="B47" s="5">
-        <f>SUM(B39:B46)</f>
-        <v>34.740382015906562</v>
-      </c>
-      <c r="C47" s="5">
-        <f>SUM(C39:C46)</f>
-        <v>871.14846377683944</v>
-      </c>
-      <c r="D47" s="5">
-        <f>SUM(D39:D46)</f>
-        <v>7100</v>
-      </c>
-      <c r="E47" s="5">
-        <f>SUM(E39:E46)</f>
-        <v>150.86901870118513</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="12">
-        <f>E55</f>
-        <v>1.2566666666666282E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4">
-        <f>CORREL(A39:A46,B39:B46)</f>
-        <v>0.67627025306542676</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4">
-        <f>ABS(B48)*SQRT((B48-2)/(1-B49^2))</f>
-        <v>26.601264976615415</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>8</v>
-      </c>
-      <c r="B51" s="5">
-        <v>200</v>
-      </c>
-      <c r="D51" s="5">
-        <v>34.740380000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>200</v>
-      </c>
-      <c r="B52" s="5">
-        <v>7100</v>
-      </c>
-      <c r="D52" s="5">
-        <v>871.14850000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="array" ref="A54:B55">MINVERSE(A51:B52)</f>
-        <v>0.42261904761904762</v>
-      </c>
-      <c r="B54">
-        <v>-1.1904761904761904E-2</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="array" ref="E54:E55">MMULT(A54:B55,D51:D52)</f>
-        <v>4.3111308333333351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>-1.1904761904761904E-2</v>
-      </c>
-      <c r="B55">
-        <v>4.7619047619047619E-4</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="H48" s="13">
+        <f>EXP(E48)</f>
+        <v>68.795016679180108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-0.70775685416422662</v>
+      </c>
+      <c r="B49">
+        <v>0.23704916913023519</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="3">
-        <v>1.2566666666666282E-3</v>
+      <c r="E49" s="3">
+        <v>3.7316650533544049E-2</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="12">
+        <f>E49</f>
+        <v>3.7316650533544049E-2</v>
       </c>
     </row>
   </sheetData>
